--- a/24-25/Invoice 24-25/13 BK013 Dec 24-25 TCS Granite SDN BHD/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/13 BK013 Dec 24-25 TCS Granite SDN BHD/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\13 BK013 Oct 24-25 TCS Granite SDN BHD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\13 BK013 Dec 24-25 TCS Granite SDN BHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C992E-2345-486C-A3D4-2CF76B2938BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077BD02B-B153-4B2E-A5ED-C13530B4D991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
   <si>
     <t xml:space="preserve">EXPORTER </t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>90, Jasodanagar Cross Road, Nr. Canal,</t>
-  </si>
-  <si>
-    <t>Ahmedabad, Gujarat, India - 380026.</t>
   </si>
   <si>
     <t>Opp.Baroda Express Highway, Amraiwadi,</t>
@@ -255,12 +252,6 @@
   </si>
   <si>
     <t>Container No.</t>
-  </si>
-  <si>
-    <t>28000kgs</t>
-  </si>
-  <si>
-    <t>27500kgs</t>
   </si>
   <si>
     <t>QUANTITY  : 1X20 FT CONTAINER</t>
@@ -564,31 +555,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>TCS GRANITE SDN BHD
-Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
-Tel- 03-32907704
-Email : 	tcsmarble@gmail.com</t>
-  </si>
-  <si>
-    <t>Port Klang</t>
-  </si>
-  <si>
     <t>MALAYSIA</t>
   </si>
   <si>
-    <t xml:space="preserve">FINAL INVOICE </t>
-  </si>
-  <si>
     <t>SQF</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINAL </t>
-  </si>
-  <si>
-    <t>SUB TOTAL</t>
   </si>
   <si>
     <t>2cm : Rate  Per</t>
@@ -624,13 +594,46 @@
     <t>CSNU1867038</t>
   </si>
   <si>
-    <t>EIGHT THOUSAD THREE HUNDRED EIGHTY SEVEN DOLLAR AND SIXTY SIX CENT</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polished Granite Slabs 3 CM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS GRANITE SDN BHD
+Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
+Tel- 03-32907704
+Email : 	tcsmarble@gmail.com </t>
+  </si>
+  <si>
+    <t>Ahmedabad, Gujarat- 380026.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVOICE </t>
+  </si>
+  <si>
+    <t>Thirteen Thousand Nine Hundred Eighty Seven Dollar and Sixty Six Cent Only</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>5500 KG</t>
+  </si>
+  <si>
+    <t>22500 KG</t>
+  </si>
+  <si>
+    <t>5400 KG</t>
+  </si>
+  <si>
+    <t>22100 KG</t>
+  </si>
+  <si>
+    <t>Kattupalli, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Kelang, Malaysia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Klang, Malaysia </t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1116,12 +1119,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1143,9 +1176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1157,7 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1223,10 +1253,39 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,18 +1297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,22 +1306,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1283,6 +1320,288 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,30 +1620,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1346,21 +1641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,224 +1668,155 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1643,143 +1854,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,9 +1922,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1858,73 +1979,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1972,22 +2026,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>401396</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80546</xdr:rowOff>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>36802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE65E1FF-F6A7-4AA8-A593-3A2497C1F96A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6AED58-77D5-4910-8835-EDFACFD5C091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,8 +2063,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743326" y="8292394"/>
-          <a:ext cx="1601545" cy="646402"/>
+          <a:off x="3848100" y="7258050"/>
+          <a:ext cx="1605280" cy="646402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2027,15 +2081,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>157880</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>583586</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2073,8 +2127,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505326" y="8425580"/>
-          <a:ext cx="1066800" cy="463150"/>
+          <a:off x="4648200" y="8248650"/>
+          <a:ext cx="1364636" cy="592455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,64 +2531,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2547,257 +2601,257 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="36" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>123</v>
+      <c r="A1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>147</v>
+      <c r="A2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="37" t="str">
+      <c r="A3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="34" t="str">
         <f>"BK0" &amp; B2 &amp; "/" &amp; B1</f>
         <v>BK013/24-25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="42">
+      <c r="A4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="39">
         <v>45631</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="47" t="str">
+      <c r="A5" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="44" t="str">
         <f>IF(B1="24-25","AD240424008317F",IF(B1="23-24","AD240322004861M",IF(B1="","select the financial year")))</f>
         <v>AD240424008317F</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+        <v>158</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="75"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="75"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="75"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="N9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="75"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="75"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="48">
+      <c r="A12" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="40" t="s">
+      <c r="B23" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="B25" s="36">
+        <v>974.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="39">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="39">
-        <v>974.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>2107.23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="39">
+      <c r="A28" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="36">
         <v>5.25</v>
       </c>
     </row>
@@ -2877,10 +2931,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,37 +2942,37 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="A1" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2927,16 +2981,16 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2945,18 +2999,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="117" t="str">
+      <c r="E4" s="113" t="str">
         <f>'input data'!B3</f>
         <v>BK013/24-25</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="126">
+      <c r="F4" s="114"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164">
         <f>'input data'!B4</f>
         <v>45631</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="118"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2965,685 +3019,662 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
+      <c r="E5" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="127" t="str">
+      <c r="E6" s="113"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="165" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
+      <c r="E7" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="114" t="s">
+      <c r="E8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="166"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="E9" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="144"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="83" t="str">
+      <c r="E10" s="158" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83" t="str">
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="158" t="str">
         <f>'input data'!B12 &amp; " " &amp; 'input data'!B14</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="171"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="171" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="92" t="str">
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="178" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="79" t="str">
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="173" t="str">
         <f>'input data'!B16</f>
-        <v>Against Documents</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+        <v>30 % Advance, Remaning Against Document</v>
+      </c>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="E14" s="184" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="str">
+      <c r="A15" s="183" t="str">
         <f>'input data'!B6</f>
-        <v>TCS GRANITE SDN BHD
+        <v xml:space="preserve">TCS GRANITE SDN BHD
 Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
 Tel- 03-32907704
-Email : 	tcsmarble@gmail.com</v>
-      </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+Email : 	tcsmarble@gmail.com </v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="151"/>
+      <c r="C20" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="151"/>
+      <c r="E20" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="89" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="84" t="str">
+        <f>'input data'!B18</f>
+        <v>Kattupalli, India</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="148"/>
-      <c r="J20" s="90"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="121" t="str">
-        <f>'input data'!B18</f>
-        <v>chennai</v>
-      </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="143" t="str">
+      <c r="F21" s="147"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="146" t="str">
         <f>'input data'!B22</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87" t="s">
+      <c r="D23" s="145"/>
+      <c r="E23" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="86" t="s">
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="87" t="s">
+      <c r="I23" s="144"/>
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="113"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="161" t="str">
+        <f>'input data'!B19</f>
+        <v>Kattupalli, India</v>
+      </c>
+      <c r="D24" s="162"/>
+      <c r="E24" s="161" t="str">
+        <f>'input data'!B20</f>
+        <v xml:space="preserve">Port Kelang, Malaysia </v>
+      </c>
+      <c r="F24" s="166"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="161" t="str">
+        <f>'input data'!B21</f>
+        <v xml:space="preserve">Port Klang, Malaysia </v>
+      </c>
+      <c r="I24" s="166"/>
+      <c r="J24" s="162"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="114" t="str">
-        <f>'input data'!B19</f>
-        <v>Chennai</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="114" t="str">
-        <f>'input data'!B20</f>
-        <v>Port Klang</v>
-      </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="114" t="str">
-        <f>'input data'!B21</f>
-        <v>Port Klang</v>
-      </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="133" t="s">
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="119" t="s">
+      <c r="F25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="G25" s="140"/>
+      <c r="H25" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="140"/>
-      <c r="H25" s="71" t="s">
+      <c r="I25" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="J25" s="140"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="138"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="142"/>
+      <c r="H26" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="140"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="120"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="142"/>
-      <c r="H26" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="141" t="s">
-        <v>34</v>
-      </c>
       <c r="J26" s="142"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162">
+      <c r="A27" s="92">
         <v>1</v>
       </c>
-      <c r="B27" s="283" t="str">
+      <c r="B27" s="118" t="str">
         <f>'input data'!B17</f>
         <v>Polished Granite Slabs 2 CM</v>
       </c>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
-      <c r="E27" s="162">
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="92">
         <v>68022390</v>
       </c>
-      <c r="F27" s="165">
+      <c r="F27" s="94">
         <f>'input data'!B25</f>
         <v>974.9</v>
       </c>
-      <c r="G27" s="166"/>
-      <c r="H27" s="168">
+      <c r="G27" s="95"/>
+      <c r="H27" s="98">
         <f>'input data'!B26</f>
         <v>3</v>
       </c>
-      <c r="I27" s="170">
+      <c r="I27" s="100">
         <f>H27*F27</f>
         <v>2924.7</v>
       </c>
-      <c r="J27" s="171"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="103"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="289"/>
-      <c r="C29" s="290"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="163">
+      <c r="A30" s="93">
         <v>2</v>
       </c>
-      <c r="B30" s="286" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="162">
+      <c r="B30" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="92">
         <v>68022390</v>
       </c>
-      <c r="F30" s="165">
+      <c r="F30" s="94">
         <f>'input data'!B27</f>
         <v>2107.23</v>
       </c>
-      <c r="G30" s="166"/>
-      <c r="H30" s="168">
+      <c r="G30" s="95"/>
+      <c r="H30" s="98">
         <f>'input data'!B28</f>
         <v>5.25</v>
       </c>
-      <c r="I30" s="170">
+      <c r="I30" s="100">
         <f>F30*H30</f>
         <v>11062.9575</v>
       </c>
-      <c r="J30" s="171"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="289"/>
-      <c r="C32" s="290"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="103"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>42</v>
+      <c r="A33" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="67" t="s">
-        <v>45</v>
-      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="174" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="175"/>
-      <c r="I33" s="170">
-        <f>I27+I30</f>
-        <v>13987.657500000001</v>
-      </c>
-      <c r="J33" s="171"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83" t="str">
+      <c r="A34" s="113" t="str">
         <f>UPPER('input data'!B23)</f>
         <v>CSNU1867038</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="55">
+      <c r="B34" s="114"/>
+      <c r="C34" s="59">
         <f>'input data'!B24</f>
         <v>164</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="60" t="s">
+        <v>118</v>
+      </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="182">
-        <v>5600</v>
-      </c>
-      <c r="J35" s="171"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="80">
+        <f>I27+I30</f>
+        <v>13987.657500000001</v>
+      </c>
+      <c r="J35" s="81"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="A36" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" s="175"/>
-      <c r="I37" s="178">
-        <f>I33-I35</f>
-        <v>8387.6575000000012</v>
-      </c>
-      <c r="J37" s="179"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="282" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="181"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A37" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="154" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="160" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:D32"/>
+  <mergeCells count="69">
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:D19"/>
+    <mergeCell ref="E14:J19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="B25:D26"/>
     <mergeCell ref="E25:E26"/>
@@ -3660,39 +3691,26 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:D19"/>
-    <mergeCell ref="E14:J19"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:D32"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="G33:J34"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:J32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3709,8 +3727,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,155 +3739,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="145"/>
+      <c r="I2" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="205"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="226" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="227"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="228" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="117" t="str">
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="113" t="str">
         <f>Inovice!E4</f>
         <v>BK013/24-25</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="126">
+      <c r="H3" s="163"/>
+      <c r="I3" s="164">
         <f>Inovice!H4</f>
         <v>45631</v>
       </c>
-      <c r="J3" s="118"/>
+      <c r="J3" s="163"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="226" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="227"/>
+      <c r="G4" s="204" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="205"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="127" t="str">
+      <c r="G5" s="165" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="232" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
+      <c r="A6" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="23" t="s">
-        <v>57</v>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>58</v>
+      <c r="A8" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
+      <c r="G9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3882,29 +3900,29 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
+      <c r="A11" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="28" t="s">
-        <v>61</v>
+      <c r="G11" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
+      <c r="A12" s="212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
       <c r="F12" s="18"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
@@ -3912,11 +3930,11 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="236"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
       <c r="F13" s="8"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
@@ -3924,321 +3942,321 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="223"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
+      <c r="A14" s="200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="201"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="str">
+      <c r="A15" s="183" t="str">
         <f>Inovice!A15</f>
-        <v>TCS GRANITE SDN BHD
+        <v xml:space="preserve">TCS GRANITE SDN BHD
 Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
 Tel- 03-32907704
-Email : 	tcsmarble@gmail.com</v>
-      </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+Email : 	tcsmarble@gmail.com </v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="213" t="s">
+      <c r="A18" s="183"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="222" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="223"/>
+      <c r="I18" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="215"/>
-      <c r="I18" s="214" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="215"/>
+      <c r="J18" s="223"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="220"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="225"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="123" t="str">
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86" t="str">
         <f>Inovice!H21</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="J20" s="124"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="216" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="217"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="207" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="216" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="218"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="219" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="221"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="114" t="str">
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="161" t="str">
         <f>Inovice!C21</f>
-        <v>chennai</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="93" t="str">
+        <v>Kattupalli, India</v>
+      </c>
+      <c r="E22" s="166"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="179" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="216" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="217"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="207" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="114" t="str">
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="161" t="str">
         <f>Inovice!C24</f>
-        <v>Chennai</v>
-      </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
+        <v>Kattupalli, India</v>
+      </c>
+      <c r="E24" s="166"/>
+      <c r="F24" s="162"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="217"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="208"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="210" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="212"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="229" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="231"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128" t="str">
+      <c r="A26" s="167" t="str">
         <f>Inovice!E24</f>
-        <v>Port Klang</v>
-      </c>
-      <c r="B26" s="198"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="128" t="str">
+        <v xml:space="preserve">Port Kelang, Malaysia </v>
+      </c>
+      <c r="B26" s="228"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="167" t="str">
         <f>Inovice!H24</f>
-        <v>Port Klang</v>
-      </c>
-      <c r="E26" s="198"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="213" t="str">
+        <v xml:space="preserve">Port Klang, Malaysia </v>
+      </c>
+      <c r="E26" s="228"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="222" t="str">
         <f>'input data'!B16</f>
-        <v>Against Documents</v>
-      </c>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
+        <v>30 % Advance, Remaning Against Document</v>
+      </c>
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="223"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="51"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="116"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="33">
         <v>1</v>
       </c>
-      <c r="B29" s="200">
+      <c r="B29" s="232">
         <f>Inovice!E27</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="204" t="str">
+      <c r="C29" s="233"/>
+      <c r="D29" s="236" t="str">
         <f>Inovice!B27</f>
         <v>Polished Granite Slabs 2 CM</v>
       </c>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="202">
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="234">
         <f>Inovice!F27</f>
         <v>974.9</v>
       </c>
-      <c r="J29" s="203"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70">
+      <c r="A30" s="53">
         <v>2</v>
       </c>
-      <c r="B30" s="200">
+      <c r="B30" s="232">
         <f>Inovice!E30</f>
         <v>68022390</v>
       </c>
-      <c r="C30" s="201"/>
-      <c r="D30" s="204" t="str">
+      <c r="C30" s="233"/>
+      <c r="D30" s="236" t="str">
         <f>Inovice!B30</f>
         <v xml:space="preserve">Polished Granite Slabs 3 CM </v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="202">
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="234">
         <f>Inovice!F30</f>
         <v>2107.23</v>
       </c>
-      <c r="J30" s="203"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="17"/>
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="197">
+      <c r="A32" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="239">
         <f>SUM(I29:J31)</f>
         <v>3082.13</v>
       </c>
-      <c r="J32" s="78"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4246,168 +4264,221 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="63"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="64" t="s">
+      <c r="A34" s="240" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="199"/>
+      <c r="C34" s="241" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="241"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="198" t="s">
+      <c r="H34" s="199"/>
+      <c r="I34" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="198"/>
-      <c r="F34" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="63"/>
+      <c r="J34" s="242"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="str">
+      <c r="A35" s="197" t="str">
         <f>Inovice!A34</f>
         <v>CSNU1867038</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="56">
-        <f>Inovice!C34</f>
+      <c r="B35" s="198"/>
+      <c r="C35" s="196" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="74">
+        <v>55</v>
+      </c>
+      <c r="G35" s="195" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="195"/>
+      <c r="I35" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="194"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="196" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="74">
+        <v>109</v>
+      </c>
+      <c r="G36" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="199" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="199"/>
-      <c r="F35" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" s="194"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58" t="str">
+      <c r="A37" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="154" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="156"/>
+      <c r="A40" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="185" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="187"/>
+      <c r="A41" s="243" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="244"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="244"/>
+      <c r="F41" s="245"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="188" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="190"/>
+      <c r="A42" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="248"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="194" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
+      <c r="A43" s="249" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="250"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="252" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
+      <c r="J43" s="254"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="62">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:F2"/>
@@ -4423,46 +4494,11 @@
     <mergeCell ref="A12:E13"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A35:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{9977EBA1-A2DF-4F3F-82BC-07854643DADB}"/>
@@ -4479,7 +4515,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4490,95 +4526,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="259"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="287"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="284"/>
+      <c r="T1" s="284"/>
+      <c r="U1" s="284"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="262"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="290"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="265"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="293"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="266" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="268"/>
+      <c r="A4" s="294" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="295"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="296"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="269" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="270"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="271"/>
+      <c r="A5" s="261" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="263"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="118"/>
+      <c r="A6" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="163"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4590,18 +4626,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="272" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="264" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -4617,9 +4653,9 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="52">
+        <v>84</v>
+      </c>
+      <c r="B10" s="49">
         <v>45631</v>
       </c>
       <c r="C10" s="17"/>
@@ -4633,10 +4669,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -4661,7 +4697,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4674,50 +4710,50 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="232" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
+      <c r="A14" s="210" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
+      <c r="A15" s="183" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="279"/>
-      <c r="B16" s="278"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
+      <c r="A16" s="271"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="228"/>
-      <c r="B17" s="280"/>
-      <c r="C17" s="280"/>
-      <c r="D17" s="280"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -4727,7 +4763,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4752,139 +4788,139 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="78"/>
+      <c r="A20" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="172"/>
+      <c r="I20" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="249" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="249"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="238">
+      <c r="A21" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="199">
         <v>311.05</v>
       </c>
-      <c r="F21" s="238"/>
-      <c r="G21" s="254">
+      <c r="F21" s="199"/>
+      <c r="G21" s="282">
         <v>2107.23</v>
       </c>
-      <c r="H21" s="254"/>
-      <c r="I21" s="247">
+      <c r="H21" s="282"/>
+      <c r="I21" s="276">
         <f>E21*G21</f>
         <v>655453.89150000003</v>
       </c>
-      <c r="J21" s="248"/>
+      <c r="J21" s="277"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="238">
+      <c r="A22" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="199">
         <v>190.05</v>
       </c>
-      <c r="F22" s="238"/>
-      <c r="G22" s="239">
+      <c r="F22" s="199"/>
+      <c r="G22" s="255">
         <v>974.9</v>
       </c>
-      <c r="H22" s="240"/>
-      <c r="I22" s="241">
+      <c r="H22" s="256"/>
+      <c r="I22" s="257">
         <v>185280</v>
       </c>
-      <c r="J22" s="242"/>
+      <c r="J22" s="258"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="281"/>
-      <c r="B23" s="281"/>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="281"/>
-      <c r="G23" s="245" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="246"/>
-      <c r="I23" s="247">
+      <c r="A23" s="260"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="274" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="275"/>
+      <c r="I23" s="276">
         <v>840</v>
       </c>
-      <c r="J23" s="248"/>
+      <c r="J23" s="277"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="249"/>
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="250" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="251"/>
-      <c r="I24" s="252">
+      <c r="A24" s="196"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="278" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="279"/>
+      <c r="I24" s="280">
         <f>SUM(I21:J23)</f>
         <v>841573.89150000003</v>
       </c>
-      <c r="J24" s="253"/>
+      <c r="J24" s="281"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="275" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="277">
+      <c r="A27" s="267" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="268"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="269">
         <f>I24</f>
         <v>841573.89150000003</v>
       </c>
-      <c r="J27" s="78"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -4899,10 +4935,10 @@
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="273" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="274"/>
+      <c r="A29" s="265" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="266"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -4914,11 +4950,11 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -4930,7 +4966,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4944,7 +4980,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4958,11 +4994,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -4974,7 +5010,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4988,7 +5024,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5002,11 +5038,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -5019,8 +5055,8 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="53" t="s">
-        <v>106</v>
+      <c r="C37" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -5034,7 +5070,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -5045,45 +5081,45 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="228" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="280"/>
-      <c r="C39" s="280"/>
-      <c r="D39" s="280"/>
-      <c r="E39" s="280"/>
-      <c r="F39" s="280"/>
+      <c r="A39" s="206" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="259"/>
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="228" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="280"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="280"/>
+      <c r="A40" s="206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="259"/>
+      <c r="C40" s="259"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="54" t="str">
+      <c r="A41" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="51" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -5091,7 +5127,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5141,11 +5177,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A29:B29"/>
@@ -5159,27 +5208,14 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
